--- a/NBI covariates name 1 .xlsx
+++ b/NBI covariates name 1 .xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="life_style" sheetId="12" r:id="rId1"/>
-    <sheet name="Diabetes complications" sheetId="1" r:id="rId2"/>
-    <sheet name="other_comorbidity" sheetId="2" r:id="rId3"/>
-    <sheet name="laboratory" sheetId="6" r:id="rId4"/>
-    <sheet name="other_drugs" sheetId="10" r:id="rId5"/>
-    <sheet name="Prior concomitant" sheetId="7" r:id="rId6"/>
-    <sheet name="resource_utilization" sheetId="11" r:id="rId7"/>
-    <sheet name="cost" sheetId="9" r:id="rId8"/>
-    <sheet name="lifestyle" sheetId="3" r:id="rId9"/>
-    <sheet name="other drugs" sheetId="5" r:id="rId10"/>
-    <sheet name="resource utilization" sheetId="8" r:id="rId11"/>
+    <sheet name="Instruction" sheetId="13" r:id="rId1"/>
+    <sheet name="life_style" sheetId="12" r:id="rId2"/>
+    <sheet name="Diabetes complications" sheetId="1" r:id="rId3"/>
+    <sheet name="other_comorbidity" sheetId="2" r:id="rId4"/>
+    <sheet name="laboratory" sheetId="6" r:id="rId5"/>
+    <sheet name="other_drugs" sheetId="10" r:id="rId6"/>
+    <sheet name="Prior concomitant" sheetId="7" r:id="rId7"/>
+    <sheet name="resource_utilization" sheetId="11" r:id="rId8"/>
+    <sheet name="cost" sheetId="9" r:id="rId9"/>
+    <sheet name="lifestyle" sheetId="3" r:id="rId10"/>
+    <sheet name="other drugs" sheetId="5" r:id="rId11"/>
+    <sheet name="resource utilization" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="361">
   <si>
     <t>Diabetes with other ophthalmic manifestations</t>
   </si>
@@ -1091,13 +1092,62 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Instruction:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabs that are highlighted in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are needed for the output.</t>
+    </r>
+  </si>
+  <si>
+    <t>Each tab has 4 variables:</t>
+  </si>
+  <si>
+    <t>The varibale name in The output file.</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>The variable is SAS dataset</t>
+  </si>
+  <si>
+    <t>Specify whethe it is a numeric variable(N) or a character variable(C)</t>
+  </si>
+  <si>
+    <t>Specify the output style, if categorical variable "Y" means to produce just the numbers for yes, if numeric variable "Y means to output missing value, if categorical variable "F" means to produce the full categorical table, if numeric variable "N"  means to not output missing value.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,6 +1213,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1355,6 +1412,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:B12" totalsRowShown="0">
+  <autoFilter ref="A8:B12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,110 +1688,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>335</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1">
-      <c r="A3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>349</v>
+      <c r="B12" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
@@ -2468,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -2767,11 +2906,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="9" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3079,12 +3324,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3870,12 +4118,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3909,6 +4160,9 @@
       <c r="C2" t="s">
         <v>336</v>
       </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
@@ -3920,6 +4174,9 @@
       <c r="C3" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
@@ -3931,6 +4188,9 @@
       <c r="C4" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
@@ -3942,6 +4202,9 @@
       <c r="C5" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
@@ -3953,6 +4216,9 @@
       <c r="C6" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
@@ -3964,6 +4230,9 @@
       <c r="C7" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D7" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
@@ -3975,6 +4244,9 @@
       <c r="C8" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
@@ -3986,6 +4258,9 @@
       <c r="C9" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -3996,6 +4271,9 @@
       </c>
       <c r="C10" s="9" t="s">
         <v>336</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4003,12 +4281,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4443,12 +4724,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4482,6 +4766,9 @@
       <c r="C2" t="s">
         <v>336</v>
       </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
@@ -4712,12 +4999,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4751,6 +5041,9 @@
       <c r="C2" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -4762,6 +5055,9 @@
       <c r="C3" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -4773,6 +5069,9 @@
       <c r="C4" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -4826,6 +5125,9 @@
       <c r="C8" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D8" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -4837,6 +5139,9 @@
       <c r="C9" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
@@ -4848,6 +5153,9 @@
       <c r="C10" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D10" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -4873,6 +5181,9 @@
       <c r="C12" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D12" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
@@ -4898,6 +5209,9 @@
       <c r="C14" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D14" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
@@ -4923,6 +5237,9 @@
       <c r="C16" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D16" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
@@ -4948,6 +5265,9 @@
       <c r="C18" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D18" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="19" spans="1:4" s="9" customFormat="1">
       <c r="A19" s="1" t="s">
@@ -4973,6 +5293,9 @@
       <c r="C20" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D20" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="21" spans="1:4" s="9" customFormat="1">
       <c r="A21" s="1" t="s">
@@ -4984,6 +5307,9 @@
       <c r="C21" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D21" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1">
       <c r="A22" s="1" t="s">
@@ -4995,6 +5321,9 @@
       <c r="C22" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D22" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
@@ -5006,6 +5335,9 @@
       <c r="C23" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D23" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -5017,6 +5349,9 @@
       <c r="C24" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D24" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
@@ -5027,6 +5362,9 @@
       </c>
       <c r="C25" s="9" t="s">
         <v>336</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5034,12 +5372,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5073,6 +5414,9 @@
       <c r="C2" t="s">
         <v>336</v>
       </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -5084,6 +5428,9 @@
       <c r="C3" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -5095,6 +5442,9 @@
       <c r="C4" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -5106,6 +5456,9 @@
       <c r="C5" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -5117,6 +5470,9 @@
       <c r="C6" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D6" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -5128,6 +5484,9 @@
       <c r="C7" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D7" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
@@ -5139,6 +5498,9 @@
       <c r="C8" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D8" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -5150,6 +5512,9 @@
       <c r="C9" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D9" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
@@ -5161,6 +5526,9 @@
       <c r="C10" s="9" t="s">
         <v>336</v>
       </c>
+      <c r="D10" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -5172,104 +5540,8 @@
       <c r="C11" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
+      <c r="D11" s="24" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
